--- a/ConfigTable/Datas/道具.xlsx
+++ b/ConfigTable/Datas/道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>chara.ESkinEquipType</t>
+    <t>item.EEquipType</t>
   </si>
   <si>
     <t>##</t>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
